--- a/public/abcd/Conductor-wise Income Compared With Target Income Report.xlsx
+++ b/public/abcd/Conductor-wise Income Compared With Target Income Report.xlsx
@@ -59,7 +59,7 @@
     <t>Print taken by : Satya</t>
   </si>
   <si>
-    <t>Print taken at : 11-03-2019 12:42:21</t>
+    <t>Print taken at : 11-03-2019 12:47:32</t>
   </si>
 </sst>
 </file>
